--- a/Data/TB Omni Report  2024-10-30 .xlsx
+++ b/Data/TB Omni Report  2024-10-30 .xlsx
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>389.0</v>
+        <v>388.0</v>
       </c>
       <c r="C3" s="7"/>
     </row>
@@ -4020,7 +4020,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>342.0</v>
+        <v>341.0</v>
       </c>
       <c r="C4" s="7">
         <f>B4/B3</f>
@@ -4056,7 +4056,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="C7" s="7">
         <f>B7/B5</f>
@@ -4068,7 +4068,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="C8" s="7">
         <f>B8/B5</f>
@@ -4080,7 +4080,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C9" s="7">
         <f>B9/B5</f>
